--- a/Milestone 2.0/Replacement Module/DD.xlsx
+++ b/Milestone 2.0/Replacement Module/DD.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Master - FE &amp; IST\Information Systems And Technology\Software Development And Programming\Project\Algorithim\Replacement Module\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="11595" windowWidth="19200" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="252">
   <si>
     <t>ID Number</t>
   </si>
@@ -88,18 +93,21 @@
     <t>y</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -137,9 +145,6 @@
   </si>
   <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
   <si>
     <t>6</t>
@@ -775,20 +780,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -804,16 +808,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1101,23 +1114,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="16" min="15" style="1" width="8.85546875"/>
+    <col min="15" max="16" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -1210,11 +1219,14 @@
       <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1222,13 +1234,13 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -1246,36 +1258,36 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1">
         <v>2</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -1293,36 +1305,36 @@
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
         <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="O4" s="1">
         <v>2</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -1340,39 +1352,39 @@
         <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="P5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
@@ -1384,19 +1396,19 @@
         <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="P6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1404,7 +1416,7 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -1428,7 +1440,7 @@
         <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1436,11 +1448,11 @@
       <c r="N7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="1" t="n">
+      <c r="P7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1448,7 +1460,7 @@
         <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -1472,7 +1484,7 @@
         <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M8" t="s">
         <v>26</v>
@@ -1480,11 +1492,11 @@
       <c r="N8" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="1" t="n">
+      <c r="P8" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1516,19 +1528,19 @@
         <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s">
         <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1536,7 +1548,7 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -1548,7 +1560,7 @@
         <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
@@ -1560,19 +1572,19 @@
         <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
         <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="P10" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
@@ -1607,19 +1619,19 @@
         <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s">
         <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="P11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -1639,7 +1651,7 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -1651,19 +1663,19 @@
         <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s">
         <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="P12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -1671,7 +1683,7 @@
         <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -1695,7 +1707,7 @@
         <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M13" t="s">
         <v>26</v>
@@ -1703,11 +1715,11 @@
       <c r="N13" t="s">
         <v>45</v>
       </c>
-      <c r="P13" s="1" t="n">
+      <c r="P13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1715,7 +1727,7 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -1727,7 +1739,7 @@
         <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -1739,19 +1751,19 @@
         <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="1" t="n">
+      <c r="P14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1759,7 +1771,7 @@
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -1771,31 +1783,31 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="1" t="n">
+      <c r="P15" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1803,7 +1815,7 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -1827,19 +1839,19 @@
         <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="P16" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -1871,19 +1883,19 @@
         <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="P17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1891,7 +1903,7 @@
         <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -1903,7 +1915,7 @@
         <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
         <v>23</v>
@@ -1915,19 +1927,19 @@
         <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N18" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="P18" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -1935,7 +1947,7 @@
         <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
@@ -1959,19 +1971,19 @@
         <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="1" t="n">
+      <c r="P19" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
@@ -2003,16 +2015,16 @@
         <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -2020,7 +2032,7 @@
         <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -2044,16 +2056,16 @@
         <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -2061,7 +2073,7 @@
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -2085,16 +2097,16 @@
         <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
         <v>34</v>
       </c>
-      <c r="N22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -2102,7 +2114,7 @@
         <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -2126,16 +2138,16 @@
         <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -2155,7 +2167,7 @@
         <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I24" t="s">
         <v>23</v>
@@ -2167,16 +2179,16 @@
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -2184,7 +2196,7 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -2208,16 +2220,16 @@
         <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -2225,7 +2237,7 @@
         <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
         <v>103</v>
@@ -2249,7 +2261,7 @@
         <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
         <v>16</v>
@@ -2258,7 +2270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -2266,7 +2278,7 @@
         <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
         <v>103</v>
@@ -2290,24 +2302,24 @@
         <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M27" t="s">
         <v>16</v>
       </c>
       <c r="N27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
-        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
         <v>103</v>
@@ -2319,7 +2331,7 @@
         <v>22</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I28" t="s">
         <v>23</v>
@@ -2331,24 +2343,24 @@
         <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M28" t="s">
         <v>16</v>
       </c>
       <c r="N28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
-        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>103</v>
@@ -2372,24 +2384,24 @@
         <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M29" t="s">
         <v>16</v>
       </c>
       <c r="N29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
         <v>103</v>
@@ -2401,7 +2413,7 @@
         <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I30" t="s">
         <v>23</v>
@@ -2413,24 +2425,24 @@
         <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M30" t="s">
         <v>16</v>
       </c>
       <c r="N30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>40</v>
       </c>
       <c r="B31" t="s">
         <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
         <v>103</v>
@@ -2454,7 +2466,7 @@
         <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M31" t="s">
         <v>16</v>
@@ -2463,7 +2475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2471,7 +2483,7 @@
         <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
         <v>103</v>
@@ -2483,7 +2495,7 @@
         <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I32" t="s">
         <v>23</v>
@@ -2495,7 +2507,7 @@
         <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M32" t="s">
         <v>26</v>
@@ -2504,7 +2516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -2512,7 +2524,7 @@
         <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
         <v>103</v>
@@ -2524,28 +2536,28 @@
         <v>22</v>
       </c>
       <c r="H33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
         <v>30</v>
       </c>
-      <c r="I33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -2553,7 +2565,7 @@
         <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
         <v>103</v>
@@ -2577,16 +2589,16 @@
         <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M34" t="s">
         <v>26</v>
       </c>
       <c r="N34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -2594,7 +2606,7 @@
         <v>121</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s">
         <v>103</v>
@@ -2618,16 +2630,16 @@
         <v>23</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M35" t="s">
         <v>26</v>
       </c>
       <c r="N35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -2635,7 +2647,7 @@
         <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
         <v>103</v>
@@ -2647,7 +2659,7 @@
         <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
@@ -2659,16 +2671,16 @@
         <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M36" t="s">
         <v>26</v>
       </c>
       <c r="N36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
         <v>103</v>
@@ -2700,7 +2712,7 @@
         <v>23</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M37" t="s">
         <v>26</v>
@@ -2709,7 +2721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
         <v>103</v>
@@ -2741,16 +2753,16 @@
         <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
         <v>103</v>
@@ -2770,28 +2782,28 @@
         <v>22</v>
       </c>
       <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" t="s">
         <v>30</v>
       </c>
-      <c r="I39" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -2799,7 +2811,7 @@
         <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
         <v>103</v>
@@ -2823,16 +2835,16 @@
         <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2840,7 +2852,7 @@
         <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
         <v>103</v>
@@ -2852,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I41" t="s">
         <v>23</v>
@@ -2864,16 +2876,16 @@
         <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -2881,7 +2893,7 @@
         <v>135</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
         <v>103</v>
@@ -2905,16 +2917,16 @@
         <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2922,7 +2934,7 @@
         <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
         <v>103</v>
@@ -2934,7 +2946,7 @@
         <v>22</v>
       </c>
       <c r="H43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I43" t="s">
         <v>23</v>
@@ -2946,16 +2958,16 @@
         <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2963,7 +2975,7 @@
         <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
         <v>103</v>
@@ -2975,7 +2987,7 @@
         <v>22</v>
       </c>
       <c r="H44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I44" t="s">
         <v>23</v>
@@ -2987,16 +2999,16 @@
         <v>23</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -3004,7 +3016,7 @@
         <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
         <v>103</v>
@@ -3028,16 +3040,16 @@
         <v>23</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3045,7 +3057,7 @@
         <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
         <v>103</v>
@@ -3069,16 +3081,16 @@
         <v>23</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M46" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" t="s">
         <v>34</v>
       </c>
-      <c r="N46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
         <v>103</v>
@@ -3098,7 +3110,7 @@
         <v>22</v>
       </c>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I47" t="s">
         <v>23</v>
@@ -3110,16 +3122,16 @@
         <v>23</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -3127,7 +3139,7 @@
         <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s">
         <v>103</v>
@@ -3151,16 +3163,16 @@
         <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -3168,7 +3180,7 @@
         <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E49" t="s">
         <v>103</v>
@@ -3192,16 +3204,16 @@
         <v>23</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>100</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s">
         <v>20</v>
@@ -3242,7 +3254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -3250,7 +3262,7 @@
         <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
         <v>20</v>
@@ -3280,10 +3292,12 @@
         <v>16</v>
       </c>
       <c r="N51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>30</v>
+      </c>
+      <c r="O51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -3291,7 +3305,7 @@
         <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
         <v>20</v>
@@ -3321,10 +3335,10 @@
         <v>16</v>
       </c>
       <c r="N52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>108</v>
       </c>
@@ -3332,7 +3346,7 @@
         <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
         <v>20</v>
@@ -3362,10 +3376,10 @@
         <v>16</v>
       </c>
       <c r="N53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -3373,7 +3387,7 @@
         <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s">
         <v>20</v>
@@ -3385,7 +3399,7 @@
         <v>22</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
@@ -3397,16 +3411,16 @@
         <v>23</v>
       </c>
       <c r="L54" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M54" t="s">
         <v>16</v>
       </c>
       <c r="N54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -3414,7 +3428,7 @@
         <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
         <v>20</v>
@@ -3438,7 +3452,7 @@
         <v>23</v>
       </c>
       <c r="L55" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M55" t="s">
         <v>16</v>
@@ -3447,7 +3461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -3455,7 +3469,7 @@
         <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s">
         <v>20</v>
@@ -3479,7 +3493,7 @@
         <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M56" t="s">
         <v>26</v>
@@ -3488,7 +3502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -3496,7 +3510,7 @@
         <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
         <v>20</v>
@@ -3520,16 +3534,16 @@
         <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M57" t="s">
         <v>26</v>
       </c>
       <c r="N57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -3537,7 +3551,7 @@
         <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
         <v>20</v>
@@ -3549,7 +3563,7 @@
         <v>22</v>
       </c>
       <c r="H58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I58" t="s">
         <v>23</v>
@@ -3561,16 +3575,16 @@
         <v>23</v>
       </c>
       <c r="L58" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M58" t="s">
         <v>26</v>
       </c>
       <c r="N58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -3578,7 +3592,7 @@
         <v>170</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
         <v>20</v>
@@ -3602,16 +3616,16 @@
         <v>23</v>
       </c>
       <c r="L59" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M59" t="s">
         <v>26</v>
       </c>
       <c r="N59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -3619,7 +3633,7 @@
         <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
@@ -3631,7 +3645,7 @@
         <v>22</v>
       </c>
       <c r="H60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I60" t="s">
         <v>23</v>
@@ -3643,16 +3657,16 @@
         <v>23</v>
       </c>
       <c r="L60" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M60" t="s">
         <v>26</v>
       </c>
       <c r="N60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -3660,7 +3674,7 @@
         <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>20</v>
@@ -3684,7 +3698,7 @@
         <v>23</v>
       </c>
       <c r="L61" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M61" t="s">
         <v>26</v>
@@ -3693,7 +3707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -3701,7 +3715,7 @@
         <v>176</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
         <v>20</v>
@@ -3713,7 +3727,7 @@
         <v>22</v>
       </c>
       <c r="H62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I62" t="s">
         <v>23</v>
@@ -3725,16 +3739,16 @@
         <v>23</v>
       </c>
       <c r="L62" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N62" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -3742,7 +3756,7 @@
         <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
         <v>20</v>
@@ -3754,28 +3768,28 @@
         <v>22</v>
       </c>
       <c r="H63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I63" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" t="s">
         <v>30</v>
       </c>
-      <c r="I63" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" t="s">
-        <v>23</v>
-      </c>
-      <c r="L63" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" t="s">
-        <v>30</v>
-      </c>
-      <c r="N63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>130</v>
       </c>
@@ -3783,7 +3797,7 @@
         <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s">
         <v>20</v>
@@ -3807,16 +3821,16 @@
         <v>23</v>
       </c>
       <c r="L64" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -3824,7 +3838,7 @@
         <v>182</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E65" t="s">
         <v>20</v>
@@ -3848,16 +3862,16 @@
         <v>23</v>
       </c>
       <c r="L65" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -3865,7 +3879,7 @@
         <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
         <v>20</v>
@@ -3877,7 +3891,7 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I66" t="s">
         <v>23</v>
@@ -3889,16 +3903,16 @@
         <v>23</v>
       </c>
       <c r="L66" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -3906,7 +3920,7 @@
         <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E67" t="s">
         <v>20</v>
@@ -3930,16 +3944,16 @@
         <v>23</v>
       </c>
       <c r="L67" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -3947,7 +3961,7 @@
         <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
         <v>20</v>
@@ -3971,16 +3985,16 @@
         <v>23</v>
       </c>
       <c r="L68" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N68" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -3988,7 +4002,7 @@
         <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s">
         <v>20</v>
@@ -4012,16 +4026,16 @@
         <v>23</v>
       </c>
       <c r="L69" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -4029,7 +4043,7 @@
         <v>192</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E70" t="s">
         <v>20</v>
@@ -4053,16 +4067,16 @@
         <v>23</v>
       </c>
       <c r="L70" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M70" t="s">
+        <v>35</v>
+      </c>
+      <c r="N70" t="s">
         <v>34</v>
       </c>
-      <c r="N70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -4070,7 +4084,7 @@
         <v>194</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
         <v>20</v>
@@ -4094,16 +4108,16 @@
         <v>23</v>
       </c>
       <c r="L71" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N71" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -4111,7 +4125,7 @@
         <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E72" t="s">
         <v>20</v>
@@ -4123,7 +4137,7 @@
         <v>22</v>
       </c>
       <c r="H72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I72" t="s">
         <v>23</v>
@@ -4135,16 +4149,16 @@
         <v>23</v>
       </c>
       <c r="L72" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -4152,7 +4166,7 @@
         <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
         <v>20</v>
@@ -4176,16 +4190,16 @@
         <v>23</v>
       </c>
       <c r="L73" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N73" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>150</v>
       </c>
@@ -4193,7 +4207,7 @@
         <v>200</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
         <v>103</v>
@@ -4217,7 +4231,7 @@
         <v>23</v>
       </c>
       <c r="L74" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M74" t="s">
         <v>16</v>
@@ -4226,7 +4240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>152</v>
       </c>
@@ -4234,7 +4248,7 @@
         <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
         <v>103</v>
@@ -4258,16 +4272,16 @@
         <v>23</v>
       </c>
       <c r="L75" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M75" t="s">
         <v>16</v>
       </c>
       <c r="N75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -4275,7 +4289,7 @@
         <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E76" t="s">
         <v>103</v>
@@ -4287,7 +4301,7 @@
         <v>22</v>
       </c>
       <c r="H76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I76" t="s">
         <v>23</v>
@@ -4299,16 +4313,16 @@
         <v>23</v>
       </c>
       <c r="L76" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M76" t="s">
         <v>16</v>
       </c>
       <c r="N76" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -4316,7 +4330,7 @@
         <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
         <v>103</v>
@@ -4340,16 +4354,16 @@
         <v>23</v>
       </c>
       <c r="L77" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M77" t="s">
         <v>16</v>
       </c>
       <c r="N77" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -4357,7 +4371,7 @@
         <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E78" t="s">
         <v>103</v>
@@ -4369,7 +4383,7 @@
         <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I78" t="s">
         <v>23</v>
@@ -4381,16 +4395,16 @@
         <v>23</v>
       </c>
       <c r="L78" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M78" t="s">
         <v>16</v>
       </c>
       <c r="N78" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
@@ -4398,7 +4412,7 @@
         <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
         <v>103</v>
@@ -4422,7 +4436,7 @@
         <v>23</v>
       </c>
       <c r="L79" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M79" t="s">
         <v>16</v>
@@ -4431,7 +4445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>163</v>
       </c>
@@ -4439,7 +4453,7 @@
         <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E80" t="s">
         <v>103</v>
@@ -4451,7 +4465,7 @@
         <v>22</v>
       </c>
       <c r="H80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I80" t="s">
         <v>23</v>
@@ -4463,7 +4477,7 @@
         <v>23</v>
       </c>
       <c r="L80" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M80" t="s">
         <v>26</v>
@@ -4472,7 +4486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -4480,7 +4494,7 @@
         <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s">
         <v>103</v>
@@ -4492,28 +4506,28 @@
         <v>22</v>
       </c>
       <c r="H81" t="s">
+        <v>31</v>
+      </c>
+      <c r="I81" t="s">
+        <v>23</v>
+      </c>
+      <c r="J81" t="s">
+        <v>23</v>
+      </c>
+      <c r="K81" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" t="s">
+        <v>24</v>
+      </c>
+      <c r="M81" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81" t="s">
         <v>30</v>
       </c>
-      <c r="I81" t="s">
-        <v>23</v>
-      </c>
-      <c r="J81" t="s">
-        <v>23</v>
-      </c>
-      <c r="K81" t="s">
-        <v>23</v>
-      </c>
-      <c r="L81" t="s">
-        <v>41</v>
-      </c>
-      <c r="M81" t="s">
-        <v>26</v>
-      </c>
-      <c r="N81" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -4521,7 +4535,7 @@
         <v>216</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E82" t="s">
         <v>103</v>
@@ -4545,16 +4559,16 @@
         <v>23</v>
       </c>
       <c r="L82" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M82" t="s">
         <v>26</v>
       </c>
       <c r="N82" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>169</v>
       </c>
@@ -4562,7 +4576,7 @@
         <v>218</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E83" t="s">
         <v>103</v>
@@ -4586,16 +4600,16 @@
         <v>23</v>
       </c>
       <c r="L83" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M83" t="s">
         <v>26</v>
       </c>
       <c r="N83" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -4603,7 +4617,7 @@
         <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
         <v>103</v>
@@ -4615,7 +4629,7 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I84" t="s">
         <v>23</v>
@@ -4627,16 +4641,16 @@
         <v>23</v>
       </c>
       <c r="L84" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M84" t="s">
         <v>26</v>
       </c>
       <c r="N84" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -4644,7 +4658,7 @@
         <v>222</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
         <v>103</v>
@@ -4668,7 +4682,7 @@
         <v>23</v>
       </c>
       <c r="L85" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M85" t="s">
         <v>26</v>
@@ -4677,7 +4691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -4685,7 +4699,7 @@
         <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E86" t="s">
         <v>103</v>
@@ -4709,16 +4723,16 @@
         <v>23</v>
       </c>
       <c r="L86" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N86" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>177</v>
       </c>
@@ -4726,7 +4740,7 @@
         <v>226</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E87" t="s">
         <v>103</v>
@@ -4738,28 +4752,28 @@
         <v>22</v>
       </c>
       <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" t="s">
         <v>30</v>
       </c>
-      <c r="I87" t="s">
-        <v>23</v>
-      </c>
-      <c r="J87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K87" t="s">
-        <v>23</v>
-      </c>
-      <c r="L87" t="s">
-        <v>41</v>
-      </c>
-      <c r="M87" t="s">
-        <v>30</v>
-      </c>
-      <c r="N87" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>179</v>
       </c>
@@ -4767,7 +4781,7 @@
         <v>228</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E88" t="s">
         <v>103</v>
@@ -4791,16 +4805,16 @@
         <v>23</v>
       </c>
       <c r="L88" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N88" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>181</v>
       </c>
@@ -4808,7 +4822,7 @@
         <v>230</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E89" t="s">
         <v>103</v>
@@ -4820,7 +4834,7 @@
         <v>22</v>
       </c>
       <c r="H89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I89" t="s">
         <v>23</v>
@@ -4832,16 +4846,16 @@
         <v>23</v>
       </c>
       <c r="L89" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N89" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -4849,7 +4863,7 @@
         <v>232</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E90" t="s">
         <v>103</v>
@@ -4873,16 +4887,16 @@
         <v>23</v>
       </c>
       <c r="L90" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N90" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -4890,7 +4904,7 @@
         <v>234</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E91" t="s">
         <v>103</v>
@@ -4902,7 +4916,7 @@
         <v>22</v>
       </c>
       <c r="H91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I91" t="s">
         <v>23</v>
@@ -4914,16 +4928,16 @@
         <v>23</v>
       </c>
       <c r="L91" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N91" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -4931,7 +4945,7 @@
         <v>236</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E92" t="s">
         <v>103</v>
@@ -4943,7 +4957,7 @@
         <v>22</v>
       </c>
       <c r="H92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I92" t="s">
         <v>23</v>
@@ -4955,16 +4969,16 @@
         <v>23</v>
       </c>
       <c r="L92" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N92" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -4972,7 +4986,7 @@
         <v>238</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E93" t="s">
         <v>103</v>
@@ -4996,16 +5010,16 @@
         <v>23</v>
       </c>
       <c r="L93" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N93" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -5013,7 +5027,7 @@
         <v>240</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
         <v>103</v>
@@ -5037,16 +5051,16 @@
         <v>23</v>
       </c>
       <c r="L94" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M94" t="s">
+        <v>35</v>
+      </c>
+      <c r="N94" t="s">
         <v>34</v>
       </c>
-      <c r="N94" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -5054,7 +5068,7 @@
         <v>242</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
         <v>103</v>
@@ -5066,7 +5080,7 @@
         <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I95" t="s">
         <v>23</v>
@@ -5078,16 +5092,16 @@
         <v>23</v>
       </c>
       <c r="L95" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N95" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -5095,7 +5109,7 @@
         <v>244</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
         <v>103</v>
@@ -5119,16 +5133,16 @@
         <v>23</v>
       </c>
       <c r="L96" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N96" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -5136,7 +5150,7 @@
         <v>246</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E97" t="s">
         <v>103</v>
@@ -5160,16 +5174,16 @@
         <v>23</v>
       </c>
       <c r="L97" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N97" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -5177,7 +5191,7 @@
         <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
         <v>20</v>
@@ -5201,16 +5215,16 @@
         <v>23</v>
       </c>
       <c r="L98" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M98" t="s">
         <v>26</v>
       </c>
       <c r="N98" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>201</v>
       </c>
@@ -5218,7 +5232,7 @@
         <v>250</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E99" t="s">
         <v>103</v>
@@ -5242,16 +5256,16 @@
         <v>23</v>
       </c>
       <c r="L99" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M99" t="s">
         <v>16</v>
       </c>
       <c r="N99" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Milestone 2.0/Replacement Module/DD.xlsx
+++ b/Milestone 2.0/Replacement Module/DD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Master - FE &amp; IST\Information Systems And Technology\Software Development And Programming\Project\Algorithim\Replacement Module\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jb\Desktop\Replacement Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="253">
   <si>
     <t>ID Number</t>
   </si>
@@ -480,27 +480,27 @@
     <t>74</t>
   </si>
   <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>CA</t>
   </si>
   <si>
@@ -775,6 +775,9 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -1117,12 +1120,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1211,7 +1215,7 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -1220,7 +1224,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>16</v>
@@ -1266,8 +1270,8 @@
       <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="1">
-        <v>2</v>
+      <c r="O3" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -1313,8 +1317,8 @@
       <c r="N4" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="1">
-        <v>2</v>
+      <c r="O4" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -1360,6 +1364,9 @@
       <c r="N5" t="s">
         <v>38</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
@@ -1404,6 +1411,9 @@
       <c r="N6" t="s">
         <v>24</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
@@ -1448,6 +1458,9 @@
       <c r="N7" t="s">
         <v>45</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>252</v>
+      </c>
       <c r="P7" s="1">
         <v>1</v>
       </c>
@@ -3245,7 +3258,7 @@
         <v>23</v>
       </c>
       <c r="L50" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="M50" t="s">
         <v>16</v>
@@ -3259,7 +3272,7 @@
         <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -3268,7 +3281,7 @@
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G51" t="s">
         <v>22</v>
@@ -3286,7 +3299,7 @@
         <v>23</v>
       </c>
       <c r="L51" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="M51" t="s">
         <v>16</v>
@@ -3294,15 +3307,13 @@
       <c r="N51" t="s">
         <v>30</v>
       </c>
-      <c r="O51"/>
-      <c r="P51"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -3311,7 +3322,7 @@
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
@@ -3329,7 +3340,7 @@
         <v>23</v>
       </c>
       <c r="L52" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M52" t="s">
         <v>16</v>
@@ -3337,13 +3348,15 @@
       <c r="N52" t="s">
         <v>34</v>
       </c>
+      <c r="O52"/>
+      <c r="P52"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -3352,25 +3365,25 @@
         <v>20</v>
       </c>
       <c r="F53" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" t="s">
         <v>159</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" t="s">
-        <v>23</v>
-      </c>
-      <c r="L53" t="s">
-        <v>153</v>
       </c>
       <c r="M53" t="s">
         <v>16</v>
@@ -3411,7 +3424,7 @@
         <v>23</v>
       </c>
       <c r="L54" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="M54" t="s">
         <v>16</v>
@@ -3452,7 +3465,7 @@
         <v>23</v>
       </c>
       <c r="L55" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="M55" t="s">
         <v>16</v>
@@ -4283,7 +4296,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
         <v>204</v>
@@ -4324,7 +4337,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
         <v>206</v>
@@ -4365,7 +4378,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B78" t="s">
         <v>208</v>
